--- a/reports/num_point_report.xlsx
+++ b/reports/num_point_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17031CC8-F7F6-654A-96FB-0A42BBAB45C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC72F27-D47E-7644-B1AE-0DED143CB5D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{CC2A87F3-E22E-E243-B7CE-7680353FEA94}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Scheduled </t>
   </si>
@@ -46,6 +51,9 @@
   </si>
   <si>
     <t>patient</t>
+  </si>
+  <si>
+    <t>86(12)</t>
   </si>
 </sst>
 </file>
@@ -400,7 +408,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,8 +461,8 @@
       <c r="G2">
         <v>569</v>
       </c>
-      <c r="H2">
-        <v>86</v>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/reports/num_point_report.xlsx
+++ b/reports/num_point_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC72F27-D47E-7644-B1AE-0DED143CB5D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DDA3C4-3E3F-C948-BD9F-24FC1B891492}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{CC2A87F3-E22E-E243-B7CE-7680353FEA94}"/>
+    <workbookView xWindow="19100" yWindow="8640" windowWidth="37680" windowHeight="24400" xr2:uid="{CC2A87F3-E22E-E243-B7CE-7680353FEA94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AF7602-22BA-E34F-B8A8-3A7E7F4DD39D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M6" sqref="L6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -438,8 +445,23 @@
       <c r="H1">
         <v>226</v>
       </c>
+      <c r="I1" s="1">
+        <v>217</v>
+      </c>
+      <c r="J1" s="1">
+        <v>225</v>
+      </c>
+      <c r="K1" s="1">
+        <v>229</v>
+      </c>
+      <c r="L1" s="1">
+        <v>239</v>
+      </c>
+      <c r="M1" s="1">
+        <v>251</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +486,23 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2">
+        <v>409</v>
+      </c>
+      <c r="J2">
+        <v>1124</v>
+      </c>
+      <c r="K2">
+        <v>579</v>
+      </c>
+      <c r="L2">
+        <v>732</v>
+      </c>
+      <c r="M2">
+        <v>267</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,7 +528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
